--- a/학생테이블.xlsx
+++ b/학생테이블.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
